--- a/HW2/Top 100 Genes.xlsx
+++ b/HW2/Top 100 Genes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirksmith/Documents/Michigan/Chandrasekaran Lab/AI in BME/bme499/HW3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirksmith/Documents/Michigan/Chandrasekaran Lab/AI in BME/bme499/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E71082B-D0E0-2A43-8B8E-43DED9D0D357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F29849-745F-B846-8207-DC5D78304D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="1740" windowWidth="22700" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,9 +514,6 @@
     <t>CEP112</t>
   </si>
   <si>
-    <t>SurvivalDays</t>
-  </si>
-  <si>
     <t>PATIENT_ID</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>SurvivalDaysPF</t>
+  </si>
+  <si>
+    <t>SurvivalDaysOS</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
   <dimension ref="A1:CZ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1002,16 +1002,16 @@
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>60</v>
